--- a/data/RRB_NTPC_CBT_2/responses.xlsx
+++ b/data/RRB_NTPC_CBT_2/responses.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,6 +491,105 @@
         <v>99.37</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Holesh</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Arunachal Pradesh</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>99.37</v>
+      </c>
+      <c r="G3" t="n">
+        <v>99.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Holesh</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>12312</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>EWS</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>99.37</v>
+      </c>
+      <c r="G4" t="n">
+        <v>99.37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Holesh Sharma</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>115241120638805</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>99.37</v>
+      </c>
+      <c r="G5" t="n">
+        <v>99.37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/RRB_NTPC_CBT_2/responses.xlsx
+++ b/data/RRB_NTPC_CBT_2/responses.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,140 +454,28 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Subject1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Holesh</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1234</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>UR</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Rajasthan</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>99.37</v>
-      </c>
-      <c r="G2" t="n">
-        <v>99.37</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Holesh</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>12345</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>UR</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Arunachal Pradesh</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>99.37</v>
-      </c>
-      <c r="G3" t="n">
-        <v>99.37</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Holesh</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>12312</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>EWS</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Gujarat</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>99.37</v>
-      </c>
-      <c r="G4" t="n">
-        <v>99.37</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Holesh Sharma</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>115241120638805</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>UR</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Rajasthan</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>99.37</v>
-      </c>
-      <c r="G5" t="n">
-        <v>99.37</v>
+          <t>Sub1_Attempt</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Sub1_R</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Sub1_W</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Sub1_NA</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Sub1_Marks</t>
+        </is>
       </c>
     </row>
   </sheetData>
